--- a/BOAMP_DOCS_TEMP/2019_09_25_csv_boamp_extrait_quot.xlsx
+++ b/BOAMP_DOCS_TEMP/2019_09_25_csv_boamp_extrait_quot.xlsx
@@ -7177,214 +7177,214 @@
     <t>Landerneau</t>
   </si>
   <si>
-    <t>[(datetime.datetime(2019, 8, 20, 0, 0), 'Office Dépôt France', (192000, 'EUR'), 'Petites fournitures de bureau, agendas, calendriers'), (datetime.datetime(2019, 8, 20, 0, 0), 'Papeterie du Dauphiné', (120000, 'EUR'), 'Papier et papier recyclé'), (datetime.datetime(2019, 8, 20, 0, 0), 'Office Dépôt France', (38400, 'EUR'), 'Enveloppes et pochettes'), (datetime.datetime(2019, 8, 20, 0, 0), "L'entreprise adaptée L'EA", (60000, 'EUR'), 'Petites fournitures de bureau')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 23, 0, 0), 'TFN PROPRETE SUD OUEST\xa0', (3495454, 'EUR'), 'Prestations de nettoyageau centre hospitalier de Rodez')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 9, 0, 0), 'DYATEK', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), (datetime.datetime(2019, 9, 9, 0, 0), 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), (datetime.datetime(2019, 9, 9, 0, 0), 'Altek Medical', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), (datetime.datetime(2019, 9, 9, 0, 0), 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), (datetime.datetime(2019, 9, 9, 0, 0), 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), (datetime.datetime(2019, 9, 9, 0, 0), 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), (datetime.datetime(2019, 9, 9, 0, 0), 'DYATEK', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 8, 12, 0, 0), 'TRANS MISSIONS', (1000000, 'EUR'), "Assistance pour la préparation et la mise en oeuvre de l'ouverture à la concurrence des services de transport ferroviaires de voyageurs en Normandie")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 19, 0, 0), 'Inseme', (200000, 'EUR'), "Mise en place d'un dispositif pour l'information des familles"), (datetime.datetime(2019, 9, 19, 0, 0), 'Inseme', (40000, 'EUR'), "Elaboration et mise en oeuvre d'un plan d'action annuel pour la mise en synergie des différents acteurs oeuvrant dans le service aux familles"), (datetime.datetime(2019, 9, 19, 0, 0), 'Inseme', (20000, 'EUR'), 'Prise en charge du dispositif de transport second accompagnant')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 1, 0, 0), 'EOVI SRVICES ET SOINS', (833800.68, 'EUR'), 'Service public de gstion de la structure multi-accueil "Montboud\'chou" à Montboucher sur Jabron')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 6, 3, 0, 0), 'Territoires 38', (120000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 5, 28, 0, 0), 'Jet Systems Hélicoptères Service', (180000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 29, 0, 0), 'VERT MARINE', (2639708, 'EUR'), "Délégation de service public du centre aquatique de l'Iliade")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 23, 0, 0), 'ESE FRANCE', (597280, 'EUR'), 'Location maintenance de bacs roulants pour la collecte des déchets')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 8, 0, 0), 'People And Baby', (85000, 'EUR'), 'Quartier démocratie de proximité 1.2 (Amidonniers- Compans Caffarelli) et 1.3 (Les Chalets - Bayard - Belfort - Saint Aubin - Dupuy)'), (datetime.datetime(2019, 7, 8, 0, 0), 'Evancia Babilou', (155550, 'EUR'), 'Quartier démocratie de proximité 4-1 : Lapujade - Bonnefoy - Périole - Marengo')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 8, 26, 0, 0), 'Bernard Pages', (14000, 'EUR'), 'Vêtements de travail'), (datetime.datetime(2019, 8, 26, 0, 0), 'Vet Bigorre', (25000, 'EUR'), 'Vêtements haute visibilité'), (datetime.datetime(2019, 8, 26, 0, 0), 'Bernard Pages', (8000, 'EUR'), 'Gants'), (datetime.datetime(2019, 8, 26, 0, 0), 'Vet Bigorre', (19000, 'EUR'), 'Chaussures et bottes'), (datetime.datetime(2019, 8, 26, 0, 0), 'Vet Bigorre', (9000, 'EUR'), 'Autres Equipements de Protection Individuelle'), (datetime.datetime(2019, 8, 26, 0, 0), 'Gk Professionnal', (9000, 'EUR'), 'Uniformes'), (datetime.datetime(2019, 8, 26, 0, 0), 'Hevea', (6000, 'EUR'), "Vêtements et accessoires d'élagage")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 16, 0, 0), 'Fayat Entreprise Tp', (946451.58, 'EUR'), "Ouvrage d'art"), (datetime.datetime(2019, 7, 29, 0, 0), 'Guintoli', (4132498.8, 'EUR'), 'Terrassements, assainissement, drainage et rétablissement des communications'), (datetime.datetime(2019, 8, 6, 0, 0), 'Eurovia Gironde', (2074984.3, 'EUR'), 'Chaussées')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 10, 0, 0), "SOCIETE INDUSTRIELLE ET MARITIME D'APPROVISIONNEMENT (SIMA)", (20718.1, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 24, 0, 0), 'PLASSYS BESTEK SAS', (195900, 'EUR'), "Acquisition d'une machine de pulvérisation cathodique magnétron sous vide (PVD)")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 19, 0, 0), 'Petit Forestier Location', (108948.0, 'EUR'), None)]</t>
+    <t>[('2019-08-20', 'Office Dépôt France', (192000, 'EUR'), 'Petites fournitures de bureau, agendas, calendriers'), ('2019-08-20', 'Papeterie du Dauphiné', (120000, 'EUR'), 'Papier et papier recyclé'), ('2019-08-20', 'Office Dépôt France', (38400, 'EUR'), 'Enveloppes et pochettes'), ('2019-08-20', "L'entreprise adaptée L'EA", (60000, 'EUR'), 'Petites fournitures de bureau')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-23', 'TFN PROPRETE SUD OUEST\xa0', (3495454, 'EUR'), 'Prestations de nettoyageau centre hospitalier de Rodez')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-09', 'DYATEK', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), ('2019-09-09', 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), ('2019-09-09', 'Altek Medical', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), ('2019-09-09', 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), ('2019-09-09', 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), ('2019-09-09', 'ES MEDICAL', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.'), ('2019-09-09', 'DYATEK', (17500, 'EUR'), 'Réparations avec fourniture de pièces détachées et accessoires de divers petits matériels médicaux et chirurgicaux.')]</t>
+  </si>
+  <si>
+    <t>[('2019-08-12', 'TRANS MISSIONS', (1000000, 'EUR'), "Assistance pour la préparation et la mise en oeuvre de l'ouverture à la concurrence des services de transport ferroviaires de voyageurs en Normandie")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-19', 'Inseme', (200000, 'EUR'), "Mise en place d'un dispositif pour l'information des familles"), ('2019-09-19', 'Inseme', (40000, 'EUR'), "Elaboration et mise en oeuvre d'un plan d'action annuel pour la mise en synergie des différents acteurs oeuvrant dans le service aux familles"), ('2019-09-19', 'Inseme', (20000, 'EUR'), 'Prise en charge du dispositif de transport second accompagnant')]</t>
+  </si>
+  <si>
+    <t>[('2019-07-01', 'EOVI SRVICES ET SOINS', (833800.68, 'EUR'), 'Service public de gstion de la structure multi-accueil "Montboud\'chou" à Montboucher sur Jabron')]</t>
+  </si>
+  <si>
+    <t>[('2019-06-03', 'Territoires 38', (120000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-05-28', 'Jet Systems Hélicoptères Service', (180000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-07-29', 'VERT MARINE', (2639708, 'EUR'), "Délégation de service public du centre aquatique de l'Iliade")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-23', 'ESE FRANCE', (597280, 'EUR'), 'Location maintenance de bacs roulants pour la collecte des déchets')]</t>
+  </si>
+  <si>
+    <t>[('2019-07-08', 'People And Baby', (85000, 'EUR'), 'Quartier démocratie de proximité 1.2 (Amidonniers- Compans Caffarelli) et 1.3 (Les Chalets - Bayard - Belfort - Saint Aubin - Dupuy)'), ('2019-07-08', 'Evancia Babilou', (155550, 'EUR'), 'Quartier démocratie de proximité 4-1 : Lapujade - Bonnefoy - Périole - Marengo')]</t>
+  </si>
+  <si>
+    <t>[('2019-08-26', 'Bernard Pages', (14000, 'EUR'), 'Vêtements de travail'), ('2019-08-26', 'Vet Bigorre', (25000, 'EUR'), 'Vêtements haute visibilité'), ('2019-08-26', 'Bernard Pages', (8000, 'EUR'), 'Gants'), ('2019-08-26', 'Vet Bigorre', (19000, 'EUR'), 'Chaussures et bottes'), ('2019-08-26', 'Vet Bigorre', (9000, 'EUR'), 'Autres Equipements de Protection Individuelle'), ('2019-08-26', 'Gk Professionnal', (9000, 'EUR'), 'Uniformes'), ('2019-08-26', 'Hevea', (6000, 'EUR'), "Vêtements et accessoires d'élagage")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-16', 'Fayat Entreprise Tp', (946451.58, 'EUR'), "Ouvrage d'art"), ('2019-07-29', 'Guintoli', (4132498.8, 'EUR'), 'Terrassements, assainissement, drainage et rétablissement des communications'), ('2019-08-06', 'Eurovia Gironde', (2074984.3, 'EUR'), 'Chaussées')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-10', "SOCIETE INDUSTRIELLE ET MARITIME D'APPROVISIONNEMENT (SIMA)", (20718.1, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-07-24', 'PLASSYS BESTEK SAS', (195900, 'EUR'), "Acquisition d'une machine de pulvérisation cathodique magnétron sous vide (PVD)")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-19', 'Petit Forestier Location', (108948.0, 'EUR'), None)]</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>[(datetime.datetime(2019, 8, 12, 0, 0), 'BECHTLE - COMSFOT', (3500000, 'EUR'), 'Fourniture de licences logicielles MICROSOF')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 12, 0, 0), 'SAS SRTP', (536895.85, 'EUR'), None), (datetime.datetime(2019, 9, 12, 0, 0), 'SATER', (1080, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 17, 0, 0), 'GINGER DELEO', (27223.11, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 25, 0, 0), 'COLAS NORD-EST', (111246.8, 'EUR'), None), (datetime.datetime(2019, 9, 25, 0, 0), 'COLAS NORD-EST', (75302.4, 'EUR'), None), (datetime.datetime(2019, 9, 25, 0, 0), 'COLAS NORD-EST', (25152.0, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 23, 0, 0), "Entreprise Adaptée 'La Fensch'", (12231, 'EUR'), 'équipements de protection individuelle'), (datetime.datetime(2019, 9, 23, 0, 0), "Entreprise Adaptée 'La Fensch'", (2358, 'EUR'), 'parkas haute visibilité'), (datetime.datetime(2019, 9, 23, 0, 0), "Entreprise Adaptée 'La Fensch'", (1317, 'EUR'), 'vêtements de travail des agents des service pré-collecte et prévention')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 10, 0, 0), 'Scs', (221000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 8, 7, 0, 0), "PRESQU'ILE", (44200.0, 'EUR'), "Assistance à maitrise d'ouvrage pour les études stratégiques et d'opportunité de création d'un opérateur d'accompagnement et de soutien aux projets d'énergies renouvelables et de récupération.")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 23, 0, 0), 'IDEA &amp; KO', (81796, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 24, 0, 0), 'EIFFAGE ROUTE', (789500.26, 'EUR'), None), (datetime.datetime(2019, 9, 24, 0, 0), 'ATELIER PATRIARCA FRERES', (339947.66, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 25, 0, 0), 'SODACEN', (60631, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 20, 0, 0), 'VUYLSTEKER ET FILS', (150776, 'EUR'), None), (datetime.datetime(2019, 9, 20, 0, 0), 'TOP TOITURES DUNKERQUE', (52514, 'EUR'), None), (datetime.datetime(2019, 9, 23, 0, 0), 'CRETON FERRONNERIE', (19533, 'EUR'), None), (datetime.datetime(2019, 9, 20, 0, 0), 'CEGELEC DUNKERQUE TERTIAIRE', (18951, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 11, 0, 0), 'ALTAO SAS', (350000, 'EUR'), "Analyse des données d'activité MCO (CHB et CHC)"), (datetime.datetime(2019, 9, 11, 0, 0), 'ALTAO SAS', (300000, 'EUR'), "Analyse des données d'activité HAD (CHB)")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 18, 0, 0), 'SPIE FACILITIES', (225538.27, 'EUR'), 'Maintenance des installations de chauffage et de traitement des eaux')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 19, 0, 0), 'SAS GEOSOLUTIONS', (200000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 18, 0, 0), 'BRAULT 66', (49535, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'sarl villalongue', (372380.13, 'EUR'), None), (datetime.datetime(2019, 9, 19, 0, 0), 'SARL SAPER', (29156.58, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'M2V', (88476.63, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'POLYGONINOX', (33132.6, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'STE NOUVELLE MONROS', (64927.84, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'AXIMA CONCEPT', (99572.56, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'SPIE INDUSTRIE &amp; TERTIAIRE', (51472.16, 'EUR'), None), (datetime.datetime(2019, 9, 20, 0, 0), 'SARL MENUISERIE TIQUET', (41832.7, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'Afonso carrelages', (22398.63, 'EUR'), None), (datetime.datetime(2019, 9, 19, 0, 0), 'BOIX ET FABRE', (27671.34, 'EUR'), None), (datetime.datetime(2019, 9, 19, 0, 0), 'EGP', (10370.29, 'EUR'), None), (datetime.datetime(2019, 9, 18, 0, 0), 'otis', (19700, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 16, 0, 0), 'AQUADIF', (1400000.0, 'EUR'), "Inspections subaquatiques des ouvrages d'art sur le territoire de l'Eurométropole et la Ville de Strasbourg")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 18, 0, 0), 'SARDI', (366000, 'EUR'), 'Lot unique')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 20, 0, 0), 'JVS MAIRISTEM', (95795.25, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 24, 0, 0), 'ADVITALIA CONSULTING', (80000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 5, 27, 0, 0), 'Simire', (400000, 'EUR'), 'Mobilier scolaire, mobiliers restauration et locaux annexes (Ville de Lyon/ Ville de Villeurbanne)'), (datetime.datetime(2019, 5, 27, 0, 0), 'Manutan Collectivites', (400000, 'EUR'), 'Mobilier scolaire évolutif et mobilier évolutif locaux annexes (Ville de Villeurbanne)')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 23, 0, 0), 'ATALIAN', (1100000, 'EUR'), 'Fourniture de prestations de bionettoyage'), (datetime.datetime(2019, 9, 23, 0, 0), 'ONET SERVICES', (1100000, 'EUR'), 'Fourniture de prestations de bionettoyage'), (datetime.datetime(2019, 9, 23, 0, 0), 'ELIOR SERVICES PROPRETE SANTE', (1100000, 'EUR'), 'Fourniture de prestations de bionettoyage')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 10, 0, 0), 'MARMONT SARL', (372368, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 6, 0, 0), 'MARMONT SARL', (219055, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 24, 0, 0), 'STAUBLI', (113150, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 9, 0, 0), 'Groupement C.I. TECH', (119500, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 26, 0, 0), 'NFM PRODUCTION', (1133749, 'EUR'), "Acquisition de tenues de combat au profit des forces d'intervention de la gendarmerie et de la police nationale")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 20, 0, 0), 'Marcanterra', (128568, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 8, 27, 0, 0), 'AGENCE BLEU VOYAGES', (430000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 20, 0, 0), 'DERICHEBOURG ENERGIE', (186958.76, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 8, 2, 0, 0), 'BVS MEDICAL', (23431.2, 'EUR'), 'Fauteuil à propulsion manuelle actif ultraléger, châssis fixe pour patients blessés médulaires.'), (datetime.datetime(2019, 8, 5, 0, 0), 'BVS MEDICAL', (44980.4, 'EUR'), 'Fauteuil roulant à propulsion manuelle actif ultraléger, châssis pliant pour patients bléssés médulaires'), (datetime.datetime(2019, 8, 5, 0, 0), 'BVS MEDICAL', (99298.8, 'EUR'), 'Fauteuil roulant à propulsion manuelle avec assise réglable en hauteur pour patients cérébro-lésés (dont hémiplégiques), blessés médullaires, sclérose en plaques.'), (datetime.datetime(2019, 8, 5, 0, 0), 'BVS MEDICAL', (68302, 'EUR'), 'Fauteuil roulant à propulsion par moteur électrique pour patients médullaires, neuro musculaires à dominante intérieure AA1.'), (datetime.datetime(2019, 8, 5, 0, 0), 'BVS MEDICAL', (217769.1, 'EUR'), 'Fauteuil roulant à propulsion par moteur électrique pour patients blessés médullaires neuro musculaires (AA2)'), (datetime.datetime(2019, 8, 5, 0, 0), 'BVS MEDICAL', (62128.0, 'EUR'), 'Fauteuil roulant manuelle de confort pour la prise en charge de patient dépendants à positionnement simple'), (datetime.datetime(2019, 8, 2, 0, 0), 'SAS EVRARD GENERALE MEDICALE', (83665.0, 'EUR'), 'Fauteuil roulant à propulsion manuelle de confort pour la prise en charge gériatrique pour des patients ayant des positionnements complexes.'), (datetime.datetime(2019, 8, 5, 0, 0), 'BVS MEDICAL', (24906.52, 'EUR'), "Dispositif d'assistance électrique à la propulsion pour patients blessés médullaires et sclérose en plaque."), (datetime.datetime(2019, 8, 2, 0, 0), 'CUMBRIA', (107461.5, 'EUR'), 'Fauteuil de confort médicalisé anti-escarre'), (datetime.datetime(2019, 8, 12, 0, 0), 'CUMBRIA', (30279.4, 'EUR'), 'Fauteuil de confort médicalisé anti escarre pour personnes ayant des mouvements choréiques.')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 20, 0, 0), 'DBM TECHNOLOGIES', (483000, 'EUR'), 'Lot no1 : " Tierce maintenance applicative IP2.0 "'), (datetime.datetime(2019, 9, 20, 0, 0), 'DBM TECHNOLOGIES', (120000, 'EUR'), 'Lot no2 : " L\'exploitation et l\'administration des serveurs ".')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 20, 0, 0), 'Atarax SA', (712000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 17, 0, 0), 'IPSOS OBSERVER', (512928, 'EUR'), "Réalisation d'une enquête statistique auprès d'assistants familiaux.")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 3, 0, 0), 'RESIDE ETUDES APPARTHOTELS', (263522.16, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 8, 26, 0, 0), 'LE BUREAU DE COM', (1537336, 'EUR'), 'Relations presse de la délégation à la sécurité routière')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 19, 0, 0), 'Obeo', (1296800, 'EUR'), 'Tierce maintenance applicative des outils du pôle normes de la direction de la gestion de la donnée')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 6, 13, 0, 0), 'Maif', (18591.06, 'EUR'), 'Dommages aux biens et risques annexes'), (datetime.datetime(2019, 6, 13, 0, 0), 'Smacl', (9052.23, 'EUR'), 'Responsabilité civile et risques annexes'), (datetime.datetime(2019, 6, 13, 0, 0), 'Smacl', (17793.18, 'EUR'), 'Flotte automoibile et risques annexes'), (datetime.datetime(2019, 6, 13, 0, 0), 'Smacl', (1487.33, 'EUR'), 'Protection juridique'), (datetime.datetime(2019, 6, 13, 0, 0), 'Gras Savoye', (148375, 'EUR'), 'Risques statutaires')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 24, 0, 0), 'Atelier St Georges', (160200.0, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 25, 0, 0), 'A PROPOS', (262966.49, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 10, 0, 0), 'CAP MONDE ', (132000, 'EUR'), "Si Paris m'était conté"), (datetime.datetime(2019, 9, 10, 0, 0), 'CAP MONDE ', (132000, 'EUR'), 'Graines de curieux, préserves ta planète !'), (datetime.datetime(2019, 9, 4, 0, 0), 'TOOTAZIMUT ', (132000, 'EUR'), 'A la découverte du milieur côtier ')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 9, 0, 0), 'SEML Saint Jean Activités', (8744296, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 12, 0, 0), 'PROTECTAS', (220000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 8, 27, 0, 0), 'Couleurs de Tollens', (200000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 9, 0, 0), 'FAAR INDUSTRY', (170000, 'EUR'), "Acquisition d'un véhicule autonomisé, équipé de capteurs avec son logiciel de contrôle")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 19, 0, 0), 'MICRO 5', (70000, 'EUR'), 'marché relatif à des prestations de gestion de la régie publicitaire des supports de communication édites par la commune de Clamart.')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 5, 0, 0), 'CONFOGAZ IDF', (94004, 'EUR'), 'Chauffe-bains / Lot 1 : DT Grand Paris Seine Ouest (765 équipements)'), (datetime.datetime(2019, 9, 5, 0, 0), 'CONFOGAZ IDF', (82739, 'EUR'), 'Chauffe-bains / Lot 2 : DT Paris Ouest La Défense (673 équipements)')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 11, 0, 0), 'Macev', (2400000, 'EUR'), 'Secteur géographique 1'), (datetime.datetime(2019, 9, 11, 0, 0), 'Macev', (2400000, 'EUR'), 'Secteur géographique 2'), (datetime.datetime(2019, 7, 23, 0, 0), 'Sma', (2400000, 'EUR'), 'Secteur géographique 3')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 7, 16, 0, 0), 'REACTIV SECURITE', (337760, 'EUR'), 'Prestations de gardiennage ponctuel des sites fixes et de gardiennage des collectes mobiles de sang'), (datetime.datetime(2019, 7, 16, 0, 0), 'SPGO HIGH TEC', (43600, 'EUR'), "Prestations de télésurveillance de sites fixes et d'interventions pour la levée de doute")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 12, 0, 0), 'ATEIS', (137590, 'EUR'), 'entretien et maintenance des systèmes de détection incendie des Hôpitaux de Saint-Maurice et de ses structures extrahospitalières'), (datetime.datetime(2019, 9, 23, 0, 0), 'ERIS', (36681.28, 'EUR'), 'Entretien et maintenance des systèmes de détection incendie du Centre Hospitalier les Mûrets et ses structures extrahospitalières')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 5, 0, 0), 'VEOLIA', (200000, 'EUR'), None)]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2018, 8, 23, 0, 0), 'SARL TPROI', (1234912, 'EUR'), 'LOT 1: VRD'), (datetime.datetime(2018, 8, 23, 0, 0), 'SARL REUNION REALISATION', (2775156, 'EUR'), 'LOT 2: ESPACES VERTS')]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2019, 9, 16, 0, 0), 'ORANGE SA', (391840, 'EUR'), "Location de services d'interconnexion de sites utilisant la technologie IP (IP VPN) au profit des sites du ministère des armées et du ministère des outre-mer situés à La Réunion et à Mayotte."), (datetime.datetime(2019, 9, 6, 0, 0), 'IDOM TECHNOLOGIES SAS', (172320, 'EUR'), "Location de services d'accès à Internet au profit des sites du ministère des armées et du ministère des outre-mer situés à La Réunion et à Mayotte.")]</t>
-  </si>
-  <si>
-    <t>[(datetime.datetime(2018, 11, 15, 0, 0), "TRANSDEV PAYS D'OR", (1568262, 'EUR'), None)]</t>
+    <t>[('2019-08-12', 'BECHTLE - COMSFOT', (3500000, 'EUR'), 'Fourniture de licences logicielles MICROSOF')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-12', 'SAS SRTP', (536895.85, 'EUR'), None), ('2019-09-12', 'SATER', (1080, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-17', 'GINGER DELEO', (27223.11, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-25', 'COLAS NORD-EST', (111246.8, 'EUR'), None), ('2019-09-25', 'COLAS NORD-EST', (75302.4, 'EUR'), None), ('2019-09-25', 'COLAS NORD-EST', (25152.0, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-23', "Entreprise Adaptée 'La Fensch'", (12231, 'EUR'), 'équipements de protection individuelle'), ('2019-09-23', "Entreprise Adaptée 'La Fensch'", (2358, 'EUR'), 'parkas haute visibilité'), ('2019-09-23', "Entreprise Adaptée 'La Fensch'", (1317, 'EUR'), 'vêtements de travail des agents des service pré-collecte et prévention')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-10', 'Scs', (221000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-08-07', "PRESQU'ILE", (44200.0, 'EUR'), "Assistance à maitrise d'ouvrage pour les études stratégiques et d'opportunité de création d'un opérateur d'accompagnement et de soutien aux projets d'énergies renouvelables et de récupération.")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-23', 'IDEA &amp; KO', (81796, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-24', 'EIFFAGE ROUTE', (789500.26, 'EUR'), None), ('2019-09-24', 'ATELIER PATRIARCA FRERES', (339947.66, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-25', 'SODACEN', (60631, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-20', 'VUYLSTEKER ET FILS', (150776, 'EUR'), None), ('2019-09-20', 'TOP TOITURES DUNKERQUE', (52514, 'EUR'), None), ('2019-09-23', 'CRETON FERRONNERIE', (19533, 'EUR'), None), ('2019-09-20', 'CEGELEC DUNKERQUE TERTIAIRE', (18951, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-11', 'ALTAO SAS', (350000, 'EUR'), "Analyse des données d'activité MCO (CHB et CHC)"), ('2019-09-11', 'ALTAO SAS', (300000, 'EUR'), "Analyse des données d'activité HAD (CHB)")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-18', 'SPIE FACILITIES', (225538.27, 'EUR'), 'Maintenance des installations de chauffage et de traitement des eaux')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-19', 'SAS GEOSOLUTIONS', (200000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-18', 'BRAULT 66', (49535, 'EUR'), None), ('2019-09-18', 'sarl villalongue', (372380.13, 'EUR'), None), ('2019-09-19', 'SARL SAPER', (29156.58, 'EUR'), None), ('2019-09-18', 'M2V', (88476.63, 'EUR'), None), ('2019-09-18', 'POLYGONINOX', (33132.6, 'EUR'), None), ('2019-09-18', 'STE NOUVELLE MONROS', (64927.84, 'EUR'), None), ('2019-09-18', 'AXIMA CONCEPT', (99572.56, 'EUR'), None), ('2019-09-18', 'SPIE INDUSTRIE &amp; TERTIAIRE', (51472.16, 'EUR'), None), ('2019-09-20', 'SARL MENUISERIE TIQUET', (41832.7, 'EUR'), None), ('2019-09-18', 'Afonso carrelages', (22398.63, 'EUR'), None), ('2019-09-19', 'BOIX ET FABRE', (27671.34, 'EUR'), None), ('2019-09-19', 'EGP', (10370.29, 'EUR'), None), ('2019-09-18', 'otis', (19700, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-16', 'AQUADIF', (1400000.0, 'EUR'), "Inspections subaquatiques des ouvrages d'art sur le territoire de l'Eurométropole et la Ville de Strasbourg")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-18', 'SARDI', (366000, 'EUR'), 'Lot unique')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-20', 'JVS MAIRISTEM', (95795.25, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-24', 'ADVITALIA CONSULTING', (80000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-05-27', 'Simire', (400000, 'EUR'), 'Mobilier scolaire, mobiliers restauration et locaux annexes (Ville de Lyon/ Ville de Villeurbanne)'), ('2019-05-27', 'Manutan Collectivites', (400000, 'EUR'), 'Mobilier scolaire évolutif et mobilier évolutif locaux annexes (Ville de Villeurbanne)')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-23', 'ATALIAN', (1100000, 'EUR'), 'Fourniture de prestations de bionettoyage'), ('2019-09-23', 'ONET SERVICES', (1100000, 'EUR'), 'Fourniture de prestations de bionettoyage'), ('2019-09-23', 'ELIOR SERVICES PROPRETE SANTE', (1100000, 'EUR'), 'Fourniture de prestations de bionettoyage')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-10', 'MARMONT SARL', (372368, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-06', 'MARMONT SARL', (219055, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-24', 'STAUBLI', (113150, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-09', 'Groupement C.I. TECH', (119500, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-07-26', 'NFM PRODUCTION', (1133749, 'EUR'), "Acquisition de tenues de combat au profit des forces d'intervention de la gendarmerie et de la police nationale")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-20', 'Marcanterra', (128568, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-08-27', 'AGENCE BLEU VOYAGES', (430000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-20', 'DERICHEBOURG ENERGIE', (186958.76, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-08-02', 'BVS MEDICAL', (23431.2, 'EUR'), 'Fauteuil à propulsion manuelle actif ultraléger, châssis fixe pour patients blessés médulaires.'), ('2019-08-05', 'BVS MEDICAL', (44980.4, 'EUR'), 'Fauteuil roulant à propulsion manuelle actif ultraléger, châssis pliant pour patients bléssés médulaires'), ('2019-08-05', 'BVS MEDICAL', (99298.8, 'EUR'), 'Fauteuil roulant à propulsion manuelle avec assise réglable en hauteur pour patients cérébro-lésés (dont hémiplégiques), blessés médullaires, sclérose en plaques.'), ('2019-08-05', 'BVS MEDICAL', (68302, 'EUR'), 'Fauteuil roulant à propulsion par moteur électrique pour patients médullaires, neuro musculaires à dominante intérieure AA1.'), ('2019-08-05', 'BVS MEDICAL', (217769.1, 'EUR'), 'Fauteuil roulant à propulsion par moteur électrique pour patients blessés médullaires neuro musculaires (AA2)'), ('2019-08-05', 'BVS MEDICAL', (62128.0, 'EUR'), 'Fauteuil roulant manuelle de confort pour la prise en charge de patient dépendants à positionnement simple'), ('2019-08-02', 'SAS EVRARD GENERALE MEDICALE', (83665.0, 'EUR'), 'Fauteuil roulant à propulsion manuelle de confort pour la prise en charge gériatrique pour des patients ayant des positionnements complexes.'), ('2019-08-05', 'BVS MEDICAL', (24906.52, 'EUR'), "Dispositif d'assistance électrique à la propulsion pour patients blessés médullaires et sclérose en plaque."), ('2019-08-02', 'CUMBRIA', (107461.5, 'EUR'), 'Fauteuil de confort médicalisé anti-escarre'), ('2019-08-12', 'CUMBRIA', (30279.4, 'EUR'), 'Fauteuil de confort médicalisé anti escarre pour personnes ayant des mouvements choréiques.')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-20', 'DBM TECHNOLOGIES', (483000, 'EUR'), 'Lot no1 : " Tierce maintenance applicative IP2.0 "'), ('2019-09-20', 'DBM TECHNOLOGIES', (120000, 'EUR'), 'Lot no2 : " L\'exploitation et l\'administration des serveurs ".')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-20', 'Atarax SA', (712000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-17', 'IPSOS OBSERVER', (512928, 'EUR'), "Réalisation d'une enquête statistique auprès d'assistants familiaux.")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-03', 'RESIDE ETUDES APPARTHOTELS', (263522.16, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-08-26', 'LE BUREAU DE COM', (1537336, 'EUR'), 'Relations presse de la délégation à la sécurité routière')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-19', 'Obeo', (1296800, 'EUR'), 'Tierce maintenance applicative des outils du pôle normes de la direction de la gestion de la donnée')]</t>
+  </si>
+  <si>
+    <t>[('2019-06-13', 'Maif', (18591.06, 'EUR'), 'Dommages aux biens et risques annexes'), ('2019-06-13', 'Smacl', (9052.23, 'EUR'), 'Responsabilité civile et risques annexes'), ('2019-06-13', 'Smacl', (17793.18, 'EUR'), 'Flotte automoibile et risques annexes'), ('2019-06-13', 'Smacl', (1487.33, 'EUR'), 'Protection juridique'), ('2019-06-13', 'Gras Savoye', (148375, 'EUR'), 'Risques statutaires')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-24', 'Atelier St Georges', (160200.0, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-07-25', 'A PROPOS', (262966.49, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-10', 'CAP MONDE ', (132000, 'EUR'), "Si Paris m'était conté"), ('2019-09-10', 'CAP MONDE ', (132000, 'EUR'), 'Graines de curieux, préserves ta planète !'), ('2019-09-04', 'TOOTAZIMUT ', (132000, 'EUR'), 'A la découverte du milieur côtier ')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-09', 'SEML Saint Jean Activités', (8744296, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-12', 'PROTECTAS', (220000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-08-27', 'Couleurs de Tollens', (200000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2019-09-09', 'FAAR INDUSTRY', (170000, 'EUR'), "Acquisition d'un véhicule autonomisé, équipé de capteurs avec son logiciel de contrôle")]</t>
+  </si>
+  <si>
+    <t>[('2019-07-19', 'MICRO 5', (70000, 'EUR'), 'marché relatif à des prestations de gestion de la régie publicitaire des supports de communication édites par la commune de Clamart.')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-05', 'CONFOGAZ IDF', (94004, 'EUR'), 'Chauffe-bains / Lot 1 : DT Grand Paris Seine Ouest (765 équipements)'), ('2019-09-05', 'CONFOGAZ IDF', (82739, 'EUR'), 'Chauffe-bains / Lot 2 : DT Paris Ouest La Défense (673 équipements)')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-11', 'Macev', (2400000, 'EUR'), 'Secteur géographique 1'), ('2019-09-11', 'Macev', (2400000, 'EUR'), 'Secteur géographique 2'), ('2019-07-23', 'Sma', (2400000, 'EUR'), 'Secteur géographique 3')]</t>
+  </si>
+  <si>
+    <t>[('2019-07-16', 'REACTIV SECURITE', (337760, 'EUR'), 'Prestations de gardiennage ponctuel des sites fixes et de gardiennage des collectes mobiles de sang'), ('2019-07-16', 'SPGO HIGH TEC', (43600, 'EUR'), "Prestations de télésurveillance de sites fixes et d'interventions pour la levée de doute")]</t>
+  </si>
+  <si>
+    <t>[('2019-09-12', 'ATEIS', (137590, 'EUR'), 'entretien et maintenance des systèmes de détection incendie des Hôpitaux de Saint-Maurice et de ses structures extrahospitalières'), ('2019-09-23', 'ERIS', (36681.28, 'EUR'), 'Entretien et maintenance des systèmes de détection incendie du Centre Hospitalier les Mûrets et ses structures extrahospitalières')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-05', 'VEOLIA', (200000, 'EUR'), None)]</t>
+  </si>
+  <si>
+    <t>[('2018-08-23', 'SARL TPROI', (1234912, 'EUR'), 'LOT 1: VRD'), ('2018-08-23', 'SARL REUNION REALISATION', (2775156, 'EUR'), 'LOT 2: ESPACES VERTS')]</t>
+  </si>
+  <si>
+    <t>[('2019-09-16', 'ORANGE SA', (391840, 'EUR'), "Location de services d'interconnexion de sites utilisant la technologie IP (IP VPN) au profit des sites du ministère des armées et du ministère des outre-mer situés à La Réunion et à Mayotte."), ('2019-09-06', 'IDOM TECHNOLOGIES SAS', (172320, 'EUR'), "Location de services d'accès à Internet au profit des sites du ministère des armées et du ministère des outre-mer situés à La Réunion et à Mayotte.")]</t>
+  </si>
+  <si>
+    <t>[('2018-11-15', "TRANSDEV PAYS D'OR", (1568262, 'EUR'), None)]</t>
   </si>
   <si>
     <t>['Signalisation']</t>
